--- a/Code/Results/Cases/Case_2_235/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_235/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.1688170188006</v>
+        <v>9.53738884769195</v>
       </c>
       <c r="C2">
-        <v>6.455511117665261</v>
+        <v>4.68945060299725</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.47799009281382</v>
+        <v>12.41774513761585</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>38.09760716497006</v>
+        <v>39.92623383480575</v>
       </c>
       <c r="H2">
-        <v>12.35985234804563</v>
+        <v>16.89167979842016</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.76725722926086</v>
+        <v>8.886016925231822</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.23097159617951</v>
+        <v>13.87640065454884</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.34408426484497</v>
+        <v>9.316102732180932</v>
       </c>
       <c r="C3">
-        <v>6.148886516089994</v>
+        <v>4.549524839788759</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.59684999309317</v>
+        <v>12.18783809470999</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>37.11636292536601</v>
+        <v>39.76252730385587</v>
       </c>
       <c r="H3">
-        <v>12.29890048886154</v>
+        <v>16.91321953295695</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.12584823203098</v>
+        <v>8.751113932555404</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.28851337653168</v>
+        <v>13.73215210226653</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.809766652835</v>
+        <v>9.180255287229997</v>
       </c>
       <c r="C4">
-        <v>5.953136224857563</v>
+        <v>4.460299028150407</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.03976819538631</v>
+        <v>12.04856273325771</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>36.54042613593946</v>
+        <v>39.67275695079184</v>
       </c>
       <c r="H4">
-        <v>12.27003814451137</v>
+        <v>16.9293109631106</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.712449802420815</v>
+        <v>8.669595702558155</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.6804208159377</v>
+        <v>13.64663779154895</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.58494216111169</v>
+        <v>9.124992962736405</v>
       </c>
       <c r="C5">
-        <v>5.871513223048777</v>
+        <v>4.423133520943233</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.8088820491394</v>
+        <v>11.99236391437331</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>36.31240818648013</v>
+        <v>39.63889391000607</v>
       </c>
       <c r="H5">
-        <v>12.26033914989751</v>
+        <v>16.936587196589</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.539072145418352</v>
+        <v>8.636751575998995</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.42515775808125</v>
+        <v>13.61259620671732</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.54718049834322</v>
+        <v>9.115825233556839</v>
       </c>
       <c r="C6">
-        <v>5.857848874078931</v>
+        <v>4.4169144292458</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.77031572662985</v>
+        <v>11.98306817853113</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>36.27494932733992</v>
+        <v>39.63343561974781</v>
       </c>
       <c r="H6">
-        <v>12.25885058218575</v>
+        <v>16.93783876986607</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.509986576018765</v>
+        <v>8.631321805010584</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.38231932178377</v>
+        <v>13.6069933963253</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.80676336162222</v>
+        <v>9.179509487187907</v>
       </c>
       <c r="C7">
-        <v>5.952042887577944</v>
+        <v>4.459801023635081</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.03666979683252</v>
+        <v>12.0478024527093</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>36.53732395990173</v>
+        <v>39.67228923322031</v>
       </c>
       <c r="H7">
-        <v>12.26989910805321</v>
+        <v>16.92940618493286</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.71013144984609</v>
+        <v>8.669151176702965</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.67700853072986</v>
+        <v>13.64617538166483</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.89020659320337</v>
+        <v>9.461138226889853</v>
       </c>
       <c r="C8">
-        <v>6.351353578364686</v>
+        <v>4.641906912236045</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.1775900092983</v>
+        <v>12.33813057152248</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>37.75376959151605</v>
+        <v>39.86756882039805</v>
       </c>
       <c r="H8">
-        <v>12.33700447658307</v>
+        <v>16.89851081919215</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.550161004178</v>
+        <v>8.83925708840046</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.91207673733342</v>
+        <v>13.82605303045343</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.7962804382406</v>
+        <v>10.00975744400161</v>
       </c>
       <c r="C9">
-        <v>7.074310386326216</v>
+        <v>4.971680498030285</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.3575798434346</v>
+        <v>12.91884490214601</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>40.34945185703473</v>
+        <v>40.33485063257805</v>
       </c>
       <c r="H9">
-        <v>12.54061767547369</v>
+        <v>16.86074163129512</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.04259576134649</v>
+        <v>9.181257142790841</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.10402895858836</v>
+        <v>14.20128490995503</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.06796959268734</v>
+        <v>10.40572735139212</v>
       </c>
       <c r="C10">
-        <v>7.568540968918628</v>
+        <v>5.196049733866221</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.98875312528017</v>
+        <v>13.34768249034368</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>42.38461862415789</v>
+        <v>40.72807968292886</v>
       </c>
       <c r="H10">
-        <v>12.73979317297395</v>
+        <v>16.84699959967402</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.0461747893086</v>
+        <v>9.435003735403932</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.57977751229972</v>
+        <v>14.48825503970385</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.61962885033633</v>
+        <v>10.58338024607312</v>
       </c>
       <c r="C11">
-        <v>7.785477403413283</v>
+        <v>5.294012469400585</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.70274762989954</v>
+        <v>13.54227917689735</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>43.33861299283693</v>
+        <v>40.91741149312346</v>
       </c>
       <c r="H11">
-        <v>12.84242169068935</v>
+        <v>16.84380697772851</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.48309968543521</v>
+        <v>9.550428330598852</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.22331939866208</v>
+        <v>14.62072465115524</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.82476463277678</v>
+        <v>10.65022503058942</v>
       </c>
       <c r="C12">
-        <v>7.866510617185642</v>
+        <v>5.330502701108642</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.96926033943973</v>
+        <v>13.61582158028465</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>43.70398018329075</v>
+        <v>40.99057022754115</v>
       </c>
       <c r="H12">
-        <v>12.88311949111163</v>
+        <v>16.84303893759775</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.64578942232715</v>
+        <v>9.594091476460477</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.4631497973859</v>
+        <v>14.67111938141751</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.78075087729839</v>
+        <v>10.6358489669225</v>
       </c>
       <c r="C13">
-        <v>7.849107908258604</v>
+        <v>5.322671068955782</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.91203089385112</v>
+        <v>13.59999064934827</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>43.62510767452986</v>
+        <v>40.97474979042556</v>
       </c>
       <c r="H13">
-        <v>12.87427117130993</v>
+        <v>16.84318472254318</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.61087322795761</v>
+        <v>9.584690563201056</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.41166770043662</v>
+        <v>14.6602564075743</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.63658040016767</v>
+        <v>10.58888859133636</v>
       </c>
       <c r="C14">
-        <v>7.792166282246042</v>
+        <v>5.297026775269904</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.72475014134293</v>
+        <v>13.54833293532977</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>43.36858912577321</v>
+        <v>40.92340122714081</v>
       </c>
       <c r="H14">
-        <v>12.84573253544047</v>
+        <v>16.84373494796973</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.49653931456197</v>
+        <v>9.554021689631002</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.24312705331161</v>
+        <v>14.62486627922643</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.54778433231352</v>
+        <v>10.56006613841186</v>
       </c>
       <c r="C15">
-        <v>7.757143266165882</v>
+        <v>5.281239527057072</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.60953775078233</v>
+        <v>13.51666968987863</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>43.21200175703853</v>
+        <v>40.89213802453119</v>
       </c>
       <c r="H15">
-        <v>12.82849392104209</v>
+        <v>16.84412942922229</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.42614832038568</v>
+        <v>9.53522887220875</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.13939181358344</v>
+        <v>14.60321758570833</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.03138515453969</v>
+        <v>10.39406118119909</v>
       </c>
       <c r="C16">
-        <v>7.554206295979577</v>
+        <v>5.189563646018649</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.94154187203553</v>
+        <v>13.33494869450775</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>42.32284402686849</v>
+        <v>40.71591335507981</v>
       </c>
       <c r="H16">
-        <v>12.73333704232958</v>
+        <v>16.8472698922083</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.01723066051786</v>
+        <v>9.427456483474991</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.53717228638424</v>
+        <v>14.47963269111239</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.70778148197149</v>
+        <v>10.29153517040993</v>
       </c>
       <c r="C17">
-        <v>7.427700719683412</v>
+        <v>5.132260349037203</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.52468274725881</v>
+        <v>13.22328857302425</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>41.78462249967966</v>
+        <v>40.6104544294139</v>
       </c>
       <c r="H17">
-        <v>12.6781148025268</v>
+        <v>16.84998071346143</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.76138704849944</v>
+        <v>9.361307744734532</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.16070250322918</v>
+        <v>14.40427811207085</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.51912102410421</v>
+        <v>10.23233589369485</v>
       </c>
       <c r="C18">
-        <v>7.354193633482906</v>
+        <v>5.098915552290003</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.28226642053883</v>
+        <v>13.15902353208303</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>41.47769931624087</v>
+        <v>40.55078343926385</v>
       </c>
       <c r="H18">
-        <v>12.64747754217152</v>
+        <v>16.85182775132982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.61238301113711</v>
+        <v>9.323262766150956</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.94154332181391</v>
+        <v>14.36112011217225</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.45480618828333</v>
+        <v>10.21225499458289</v>
       </c>
       <c r="C19">
-        <v>7.329177097214822</v>
+        <v>5.08755989345292</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.19972840814762</v>
+        <v>13.13725985650784</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>41.3742340152193</v>
+        <v>40.53075040663217</v>
       </c>
       <c r="H19">
-        <v>12.63729436616161</v>
+        <v>16.85250252771414</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.5616136153488</v>
+        <v>9.310383127098602</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.86688541431352</v>
+        <v>14.34654053865356</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.74249106034575</v>
+        <v>10.30247348444173</v>
       </c>
       <c r="C20">
-        <v>7.441244388023659</v>
+        <v>5.138400397982204</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.56933120511335</v>
+        <v>13.23517980964301</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>41.84164279476619</v>
+        <v>40.62157892259947</v>
       </c>
       <c r="H20">
-        <v>12.68387610490178</v>
+        <v>16.84966234239457</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.78881309026084</v>
+        <v>9.368349510365686</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.20104899900221</v>
+        <v>14.41228102644949</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.67902817833581</v>
+        <v>10.60269417340983</v>
       </c>
       <c r="C21">
-        <v>7.808921512948908</v>
+        <v>5.30457569410695</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.779862391145</v>
+        <v>13.56351065214099</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>43.44382263598678</v>
+        <v>40.93844417558635</v>
       </c>
       <c r="H21">
-        <v>12.85406437185994</v>
+        <v>16.84356135872367</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.53019648591574</v>
+        <v>9.563031469155472</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.29273531285455</v>
+        <v>14.63525530061323</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.26920937520312</v>
+        <v>10.79637813840559</v>
       </c>
       <c r="C22">
-        <v>8.0427299220749</v>
+        <v>5.40964176470384</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.54859936021563</v>
+        <v>13.77720279263825</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>44.51495466264833</v>
+        <v>41.15404009960929</v>
       </c>
       <c r="H22">
-        <v>12.97603780557099</v>
+        <v>16.84214450192212</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.99865414787568</v>
+        <v>9.689981706480665</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.98375824359952</v>
+        <v>14.78230950028311</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.95618950155715</v>
+        <v>10.69325923141675</v>
       </c>
       <c r="C23">
-        <v>7.918527458566245</v>
+        <v>5.353894648174725</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.14029983207934</v>
+        <v>13.66325750426014</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>43.94104416686898</v>
+        <v>41.03820814493418</v>
       </c>
       <c r="H23">
-        <v>12.90991906731896</v>
+        <v>16.84266519194577</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.75007981835264</v>
+        <v>9.622266498549664</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.61695439433456</v>
+        <v>14.70371741160222</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.72680701645031</v>
+        <v>10.29752906355308</v>
       </c>
       <c r="C24">
-        <v>7.435123718152066</v>
+        <v>5.135625727740451</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.54915424191424</v>
+        <v>13.22980399417361</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>41.81585611264558</v>
+        <v>40.61654654965531</v>
       </c>
       <c r="H24">
-        <v>12.6812679683435</v>
+        <v>16.84980537914268</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.77641974918762</v>
+        <v>9.365165971975534</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.18281683539153</v>
+        <v>14.40866239344703</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.30358487102832</v>
+        <v>9.862252400723923</v>
       </c>
       <c r="C25">
-        <v>6.885227547979555</v>
+        <v>4.885532722188974</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.73099758870249</v>
+        <v>12.7610250848208</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>39.62478122847563</v>
+        <v>40.19954894129315</v>
       </c>
       <c r="H25">
-        <v>12.47724352526757</v>
+        <v>16.868505791141</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.6553191708216</v>
+        <v>9.088111680228366</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.53514198849548</v>
+        <v>14.09761352439564</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_235/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_235/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.53738884769195</v>
+        <v>12.16881701880062</v>
       </c>
       <c r="C2">
-        <v>4.68945060299725</v>
+        <v>6.455511117665385</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.41774513761585</v>
+        <v>14.47799009281382</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>39.92623383480575</v>
+        <v>38.09760716496993</v>
       </c>
       <c r="H2">
-        <v>16.89167979842016</v>
+        <v>12.35985234804553</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.886016925231822</v>
+        <v>10.7672572292609</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.87640065454884</v>
+        <v>14.23097159617954</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.316102732180932</v>
+        <v>11.34408426484506</v>
       </c>
       <c r="C3">
-        <v>4.549524839788759</v>
+        <v>6.148886516089862</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.18783809470999</v>
+        <v>13.5968499930932</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>39.76252730385587</v>
+        <v>37.11636292536583</v>
       </c>
       <c r="H3">
-        <v>16.91321953295695</v>
+        <v>12.2989004888614</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.751113932555404</v>
+        <v>10.12584823203101</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.73215210226653</v>
+        <v>13.28851337653171</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.180255287229997</v>
+        <v>10.80976665283503</v>
       </c>
       <c r="C4">
-        <v>4.460299028150407</v>
+        <v>5.953136224857544</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.04856273325771</v>
+        <v>13.0397681953863</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>39.67275695079184</v>
+        <v>36.54042613593931</v>
       </c>
       <c r="H4">
-        <v>16.9293109631106</v>
+        <v>12.27003814451136</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.669595702558155</v>
+        <v>9.712449802420805</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.64663779154895</v>
+        <v>12.6804208159377</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.124992962736405</v>
+        <v>10.58494216111168</v>
       </c>
       <c r="C5">
-        <v>4.423133520943233</v>
+        <v>5.871513223048772</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.99236391437331</v>
+        <v>12.80888204913941</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>39.63889391000607</v>
+        <v>36.31240818648022</v>
       </c>
       <c r="H5">
-        <v>16.936587196589</v>
+        <v>12.26033914989754</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.636751575998995</v>
+        <v>9.53907214541838</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.61259620671732</v>
+        <v>12.42515775808127</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.115825233556839</v>
+        <v>10.54718049834322</v>
       </c>
       <c r="C6">
-        <v>4.4169144292458</v>
+        <v>5.857848874079059</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.98306817853113</v>
+        <v>12.77031572662986</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>39.63343561974781</v>
+        <v>36.2749493273399</v>
       </c>
       <c r="H6">
-        <v>16.93783876986607</v>
+        <v>12.25885058218575</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.631321805010584</v>
+        <v>9.509986576018798</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.6069933963253</v>
+        <v>12.38231932178377</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.179509487187907</v>
+        <v>10.80676336162216</v>
       </c>
       <c r="C7">
-        <v>4.459801023635081</v>
+        <v>5.952042887577967</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.0478024527093</v>
+        <v>13.03666979683252</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>39.67228923322031</v>
+        <v>36.53732395990145</v>
       </c>
       <c r="H7">
-        <v>16.92940618493286</v>
+        <v>12.26989910805332</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.669151176702965</v>
+        <v>9.710131449846042</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.64617538166483</v>
+        <v>12.67700853072978</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.461138226889853</v>
+        <v>11.89020659320341</v>
       </c>
       <c r="C8">
-        <v>4.641906912236045</v>
+        <v>6.35135357836467</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.33813057152248</v>
+        <v>14.17759000929833</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>39.86756882039805</v>
+        <v>37.75376959151595</v>
       </c>
       <c r="H8">
-        <v>16.89851081919215</v>
+        <v>12.33700447658302</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.83925708840046</v>
+        <v>10.55016100417803</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.82605303045343</v>
+        <v>13.91207673733341</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.00975744400161</v>
+        <v>13.79628043824055</v>
       </c>
       <c r="C9">
-        <v>4.971680498030285</v>
+        <v>7.074310386326328</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.91884490214601</v>
+        <v>16.35757984343463</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>40.33485063257805</v>
+        <v>40.34945185703475</v>
       </c>
       <c r="H9">
-        <v>16.86074163129512</v>
+        <v>12.54061767547373</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.181257142790841</v>
+        <v>12.04259576134644</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.20128490995503</v>
+        <v>16.10402895858836</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.40572735139212</v>
+        <v>15.0679695926873</v>
       </c>
       <c r="C10">
-        <v>5.196049733866221</v>
+        <v>7.568540968918819</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.34768249034368</v>
+        <v>17.98875312528017</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>40.72807968292886</v>
+        <v>42.38461862415791</v>
       </c>
       <c r="H10">
-        <v>16.84699959967402</v>
+        <v>12.73979317297385</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.435003735403932</v>
+        <v>13.04617478930863</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.48825503970385</v>
+        <v>17.57977751229974</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.58338024607312</v>
+        <v>15.61962885033638</v>
       </c>
       <c r="C11">
-        <v>5.294012469400585</v>
+        <v>7.785477403412991</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.54227917689735</v>
+        <v>18.70274762989961</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>40.91741149312346</v>
+        <v>43.33861299283694</v>
       </c>
       <c r="H11">
-        <v>16.84380697772851</v>
+        <v>12.84242169068932</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.550428330598852</v>
+        <v>13.48309968543519</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.62072465115524</v>
+        <v>18.22331939866212</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.65022503058942</v>
+        <v>15.82476463277676</v>
       </c>
       <c r="C12">
-        <v>5.330502701108642</v>
+        <v>7.866510617185567</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.61582158028465</v>
+        <v>18.96926033943969</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>40.99057022754115</v>
+        <v>43.70398018329084</v>
       </c>
       <c r="H12">
-        <v>16.84303893759775</v>
+        <v>12.88311949111168</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.594091476460477</v>
+        <v>13.64578942232713</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.67111938141751</v>
+        <v>18.46314979738586</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.6358489669225</v>
+        <v>15.78075087729842</v>
       </c>
       <c r="C13">
-        <v>5.322671068955782</v>
+        <v>7.849107908258604</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.59999064934827</v>
+        <v>18.91203089385114</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>40.97474979042556</v>
+        <v>43.62510767452974</v>
       </c>
       <c r="H13">
-        <v>16.84318472254318</v>
+        <v>12.87427117130988</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.584690563201056</v>
+        <v>13.61087322795767</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.6602564075743</v>
+        <v>18.41166770043665</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.58888859133636</v>
+        <v>15.63658040016775</v>
       </c>
       <c r="C14">
-        <v>5.297026775269904</v>
+        <v>7.792166282245859</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.54833293532977</v>
+        <v>18.72475014134293</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>40.92340122714081</v>
+        <v>43.36858912577318</v>
       </c>
       <c r="H14">
-        <v>16.84373494796973</v>
+        <v>12.84573253544049</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.554021689631002</v>
+        <v>13.496539314562</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.62486627922643</v>
+        <v>18.24312705331162</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.56006613841186</v>
+        <v>15.54778433231356</v>
       </c>
       <c r="C15">
-        <v>5.281239527057072</v>
+        <v>7.757143266165992</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.51666968987863</v>
+        <v>18.60953775078226</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>40.89213802453119</v>
+        <v>43.21200175703828</v>
       </c>
       <c r="H15">
-        <v>16.84412942922229</v>
+        <v>12.82849392104202</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.53522887220875</v>
+        <v>13.42614832038575</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.60321758570833</v>
+        <v>18.13939181358343</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.39406118119909</v>
+        <v>15.03138515453961</v>
       </c>
       <c r="C16">
-        <v>5.189563646018649</v>
+        <v>7.554206295979594</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.33494869450775</v>
+        <v>17.9415418720355</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>40.71591335507981</v>
+        <v>42.32284402686824</v>
       </c>
       <c r="H16">
-        <v>16.8472698922083</v>
+        <v>12.7333370423296</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.427456483474991</v>
+        <v>13.01723066051784</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.47963269111239</v>
+        <v>17.53717228638419</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.29153517040993</v>
+        <v>14.70778148197149</v>
       </c>
       <c r="C17">
-        <v>5.132260349037203</v>
+        <v>7.427700719683719</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.22328857302425</v>
+        <v>17.52468274725875</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>40.6104544294139</v>
+        <v>41.7846224996796</v>
       </c>
       <c r="H17">
-        <v>16.84998071346143</v>
+        <v>12.67811480252678</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.361307744734532</v>
+        <v>12.7613870484995</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.40427811207085</v>
+        <v>17.16070250322918</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.23233589369485</v>
+        <v>14.51912102410414</v>
       </c>
       <c r="C18">
-        <v>5.098915552290003</v>
+        <v>7.354193633482987</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.15902353208303</v>
+        <v>17.28226642053885</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>40.55078343926385</v>
+        <v>41.47769931624074</v>
       </c>
       <c r="H18">
-        <v>16.85182775132982</v>
+        <v>12.64747754217156</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.323262766150956</v>
+        <v>12.61238301113706</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.36112011217225</v>
+        <v>16.94154332181389</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.21225499458289</v>
+        <v>14.45480618828333</v>
       </c>
       <c r="C19">
-        <v>5.08755989345292</v>
+        <v>7.329177097214837</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.13725985650784</v>
+        <v>17.19972840814764</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>40.53075040663217</v>
+        <v>41.37423401521924</v>
       </c>
       <c r="H19">
-        <v>16.85250252771414</v>
+        <v>12.63729436616163</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.310383127098602</v>
+        <v>12.56161361534881</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.34654053865356</v>
+        <v>16.86688541431354</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.30247348444173</v>
+        <v>14.74249106034578</v>
       </c>
       <c r="C20">
-        <v>5.138400397982204</v>
+        <v>7.441244388023367</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.23517980964301</v>
+        <v>17.5693312051134</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>40.62157892259947</v>
+        <v>41.84164279476602</v>
       </c>
       <c r="H20">
-        <v>16.84966234239457</v>
+        <v>12.68387610490178</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.368349510365686</v>
+        <v>12.78881309026084</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.41228102644949</v>
+        <v>17.20104899900223</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.60269417340983</v>
+        <v>15.6790281783358</v>
       </c>
       <c r="C21">
-        <v>5.30457569410695</v>
+        <v>7.808921512948705</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.56351065214099</v>
+        <v>18.77986239114506</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>40.93844417558635</v>
+        <v>43.44382263598707</v>
       </c>
       <c r="H21">
-        <v>16.84356135872367</v>
+        <v>12.85406437185997</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.563031469155472</v>
+        <v>13.53019648591569</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.63525530061323</v>
+        <v>18.2927353128545</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.79637813840559</v>
+        <v>16.26920937520317</v>
       </c>
       <c r="C22">
-        <v>5.40964176470384</v>
+        <v>8.042729922074924</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.77720279263825</v>
+        <v>19.54859936021567</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>41.15404009960929</v>
+        <v>44.51495466264846</v>
       </c>
       <c r="H22">
-        <v>16.84214450192212</v>
+        <v>12.97603780557101</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.689981706480665</v>
+        <v>13.99865414787574</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.78230950028311</v>
+        <v>18.98375824359954</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.69325923141675</v>
+        <v>15.95618950155718</v>
       </c>
       <c r="C23">
-        <v>5.353894648174725</v>
+        <v>7.918527458566293</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.66325750426014</v>
+        <v>19.14029983207929</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>41.03820814493418</v>
+        <v>43.94104416686908</v>
       </c>
       <c r="H23">
-        <v>16.84266519194577</v>
+        <v>12.90991906731904</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.622266498549664</v>
+        <v>13.75007981835263</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.70371741160222</v>
+        <v>18.61695439433451</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.29752906355308</v>
+        <v>14.7268070164503</v>
       </c>
       <c r="C24">
-        <v>5.135625727740451</v>
+        <v>7.435123718151897</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.22980399417361</v>
+        <v>17.54915424191423</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>40.61654654965531</v>
+        <v>41.81585611264563</v>
       </c>
       <c r="H24">
-        <v>16.84980537914268</v>
+        <v>12.68126796834358</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.365165971975534</v>
+        <v>12.7764197491876</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.40866239344703</v>
+        <v>17.18281683539151</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.862252400723923</v>
+        <v>13.30358487102826</v>
       </c>
       <c r="C25">
-        <v>4.885532722188974</v>
+        <v>6.88522754797955</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.7610250848208</v>
+        <v>15.73099758870252</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>40.19954894129315</v>
+        <v>39.6247812284756</v>
       </c>
       <c r="H25">
-        <v>16.868505791141</v>
+        <v>12.47724352526748</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.088111680228366</v>
+        <v>11.65531917082157</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.09761352439564</v>
+        <v>15.53514198849549</v>
       </c>
       <c r="N25">
         <v>0</v>
